--- a/Week 2/Lab2_Grimm.xlsx
+++ b/Week 2/Lab2_Grimm.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grimma\Desktop\GitHub\WDD229-Advanced-Web-Design\Week 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="96" yWindow="144" windowWidth="16260" windowHeight="5592"/>
+    <workbookView xWindow="90" yWindow="150" windowWidth="16260" windowHeight="5595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Meets Standard?</t>
   </si>
@@ -25,9 +30,6 @@
     <t>Question to answer:</t>
   </si>
   <si>
-    <t>Answer here</t>
-  </si>
-  <si>
     <t>Accessiblity Standard</t>
   </si>
   <si>
@@ -56,13 +58,34 @@
   </si>
   <si>
     <t>Identify 3 issues that would prohibit a low vision user from sucessfully viewing this website.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Alt text should be descriptive on all images</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Contrast ration insuffiecient in areas</t>
+  </si>
+  <si>
+    <t>No alt text on social media links</t>
+  </si>
+  <si>
+    <t>Not labelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This website does not meet accessibility standards.  First, all images need descriptive alt text that a screen reader would be able to read back to the impaired user.  Also, the alt text on the social media links is missing and should be added to benefit the user.  Lastly, the form field for the dropdown is not properly labelled, so the impaired user may struggle to use the web site.  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +174,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -197,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,9 +260,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,6 +295,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,24 +471,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="66.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -464,81 +497,117 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="57.6" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1">
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:3" s="4" customFormat="1">
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1">
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1">
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1">
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1">
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>

--- a/Week 2/Lab2_Grimm.xlsx
+++ b/Week 2/Lab2_Grimm.xlsx
@@ -69,9 +69,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Contrast ration insuffiecient in areas</t>
-  </si>
-  <si>
     <t>No alt text on social media links</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t xml:space="preserve">This website does not meet accessibility standards.  First, all images need descriptive alt text that a screen reader would be able to read back to the impaired user.  Also, the alt text on the social media links is missing and should be added to benefit the user.  Lastly, the form field for the dropdown is not properly labelled, so the impaired user may struggle to use the web site.  </t>
+  </si>
+  <si>
+    <t>Contrast ratio insufficient in areas</t>
   </si>
 </sst>
 </file>
@@ -475,8 +475,8 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
